--- a/Design/config/CityBuildingConfig.xlsx
+++ b/Design/config/CityBuildingConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$D$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Cname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,54 +78,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>动画文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mp4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attrs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ButtonJishi</t>
   </si>
   <si>
-    <t>harve.mp4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop2.mp4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>集市</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Fair|Str</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fair|Inte</t>
+    <t>BtnName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,21 +493,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,16 +515,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -564,16 +529,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -584,13 +546,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -601,53 +560,44 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>20001</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>20002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A5:Q43">

--- a/Design/config/CityBuildingConfig.xlsx
+++ b/Design/config/CityBuildingConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -74,30 +74,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>农田</t>
+    <t>BtnName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonGate</t>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ButtonJishi</t>
-  </si>
-  <si>
-    <t>集市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BtnName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>market</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,7 +516,7 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -518,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -532,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -568,10 +580,10 @@
         <v>20001</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
@@ -582,22 +594,30 @@
         <v>20002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>20004</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A5:Q43">
